--- a/Bill of Materials masterlist/Internal/Tray 3/Tray 3 BOM.xlsx
+++ b/Bill of Materials masterlist/Internal/Tray 3/Tray 3 BOM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bluesat\Desktop\SVN\Bill of Materials masterlist\Internal\Tray 3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="11055"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>Description</t>
   </si>
@@ -140,13 +145,16 @@
   </si>
   <si>
     <t>#Need</t>
+  </si>
+  <si>
+    <t>Tray 3 Interconnect PCB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +226,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -264,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,9 +312,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +347,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,21 +523,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,35 +563,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -585,47 +582,47 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -637,21 +634,21 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -663,21 +660,21 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -689,21 +686,21 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -715,21 +712,21 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -741,67 +738,93 @@
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
